--- a/CashFlow/CHD_cashflow.xlsx
+++ b/CashFlow/CHD_cashflow.xlsx
@@ -75,7 +75,7 @@
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="14.3"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1990000000.0</v>
+        <v>-123400000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1845000000.0</v>
+        <v>-61900000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1323300000.0</v>
+        <v>-109000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>836100000.0</v>
+        <v>-58600000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>378100000.0</v>
+        <v>-2700000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-33800000.0</v>
@@ -885,19 +885,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1517900000.0</v>
+        <v>73900000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>2146000000.0</v>
+        <v>168000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1629000000.0</v>
+        <v>211100000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1043100000.0</v>
+        <v>101900000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>592000000.0</v>
+        <v>58000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>72800000.0</v>
